--- a/data/financial_statements/sofp/TYL.xlsx
+++ b/data/financial_statements/sofp/TYL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>225000000</v>
+        <v>225287000</v>
       </c>
       <c r="C2">
-        <v>288000000</v>
+        <v>287528000</v>
       </c>
       <c r="D2">
-        <v>288000000</v>
+        <v>288235000</v>
       </c>
       <c r="E2">
-        <v>361000000</v>
+        <v>361471000</v>
       </c>
       <c r="F2">
-        <v>283000000</v>
+        <v>283483000</v>
       </c>
       <c r="G2">
         <v>267996000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>569000000</v>
+        <v>569159100</v>
       </c>
       <c r="C3">
-        <v>600000000</v>
+        <v>600112000</v>
       </c>
       <c r="D3">
-        <v>501000000</v>
+        <v>501200000</v>
       </c>
       <c r="E3">
-        <v>539000000</v>
+        <v>539196000</v>
       </c>
       <c r="F3">
-        <v>542000000</v>
+        <v>541628000</v>
       </c>
       <c r="G3">
         <v>604560000</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>66000000</v>
+        <v>6608000</v>
       </c>
       <c r="C4">
-        <v>70000000</v>
+        <v>7709000</v>
       </c>
       <c r="D4">
-        <v>70000000</v>
+        <v>6878000</v>
       </c>
       <c r="E4">
-        <v>64000000</v>
+        <v>8151000</v>
       </c>
       <c r="F4">
-        <v>53000000</v>
+        <v>5599000</v>
       </c>
       <c r="G4">
         <v>3959000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>860000000</v>
+        <v>860150000</v>
       </c>
       <c r="C5">
-        <v>957000000</v>
+        <v>957287000</v>
       </c>
       <c r="D5">
-        <v>860000000</v>
+        <v>859899000</v>
       </c>
       <c r="E5">
-        <v>964000000</v>
+        <v>964331000</v>
       </c>
       <c r="F5">
-        <v>878000000</v>
+        <v>878256000</v>
       </c>
       <c r="G5">
         <v>928928000</v>
@@ -1105,23 +1216,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>228000000</v>
+        <v>175196000</v>
       </c>
       <c r="C6">
-        <v>218000000</v>
+        <v>177907000</v>
       </c>
       <c r="D6">
-        <v>220000000</v>
+        <v>177508000</v>
       </c>
       <c r="E6">
-        <v>221000000</v>
+        <v>181193000</v>
       </c>
       <c r="F6">
-        <v>217000000</v>
+        <v>176745000</v>
       </c>
       <c r="G6">
         <v>177712000</v>
@@ -1227,23 +1338,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>23000000</v>
+        <v>22627000</v>
       </c>
       <c r="C7">
-        <v>26000000</v>
+        <v>26464000</v>
       </c>
       <c r="D7">
-        <v>34000000</v>
+        <v>34342000</v>
       </c>
       <c r="E7">
-        <v>46000000</v>
+        <v>46353000</v>
       </c>
       <c r="F7">
-        <v>65000000</v>
+        <v>64916000</v>
       </c>
       <c r="G7">
         <v>79057000</v>
@@ -1334,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>9213000</v>
@@ -1456,23 +1567,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>3505000000</v>
+        <v>3504542000</v>
       </c>
       <c r="C9">
-        <v>3526000000</v>
+        <v>3525929000</v>
       </c>
       <c r="D9">
-        <v>3550000000</v>
+        <v>3549633000</v>
       </c>
       <c r="E9">
-        <v>3441000000</v>
+        <v>3440656000</v>
       </c>
       <c r="F9">
-        <v>3464000000</v>
+        <v>3464171000</v>
       </c>
       <c r="G9">
         <v>3372193000</v>
@@ -1578,31 +1689,31 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AG10">
         <v>5504000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>50000000</v>
+        <v>50443000</v>
       </c>
       <c r="C11">
-        <v>46000000</v>
+        <v>46217000</v>
       </c>
       <c r="D11">
-        <v>45000000</v>
+        <v>45313000</v>
       </c>
       <c r="E11">
-        <v>46000000</v>
+        <v>45971000</v>
       </c>
       <c r="F11">
-        <v>43000000</v>
+        <v>43484000</v>
       </c>
       <c r="G11">
         <v>39139000</v>
@@ -1669,8 +1780,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>3815223000</v>
@@ -1791,23 +1902,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>4675000000</v>
+        <v>4675373000</v>
       </c>
       <c r="C13">
-        <v>4787000000</v>
+        <v>4787046000</v>
       </c>
       <c r="D13">
-        <v>4724000000</v>
+        <v>4723806000</v>
       </c>
       <c r="E13">
-        <v>4792000000</v>
+        <v>4732161000</v>
       </c>
       <c r="F13">
-        <v>4683000000</v>
+        <v>4682938000</v>
       </c>
       <c r="G13">
         <v>4641003000</v>
@@ -1913,23 +2024,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>108000000</v>
+        <v>108121000</v>
       </c>
       <c r="C14">
-        <v>131000000</v>
+        <v>130998000</v>
       </c>
       <c r="D14">
-        <v>128000000</v>
+        <v>128284000</v>
       </c>
       <c r="E14">
-        <v>120000000</v>
+        <v>119988000</v>
       </c>
       <c r="F14">
-        <v>101000000</v>
+        <v>100569000</v>
       </c>
       <c r="G14">
         <v>106727000</v>
@@ -2035,8 +2146,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>134313000</v>
@@ -2157,23 +2268,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>41000000</v>
+        <v>30000000</v>
       </c>
       <c r="C16">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
       <c r="D16">
-        <v>41000000</v>
+        <v>30000000</v>
       </c>
       <c r="E16">
-        <v>41000000</v>
+        <v>30000000</v>
       </c>
       <c r="F16">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
       <c r="G16">
         <v>30000000</v>
@@ -2207,8 +2318,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D17">
         <v>1374000</v>
@@ -2227,8 +2338,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>529233000</v>
@@ -2349,8 +2460,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>664000000</v>
@@ -2390,23 +2501,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>812000000</v>
+        <v>812248000</v>
       </c>
       <c r="C20">
-        <v>834000000</v>
+        <v>833859000</v>
       </c>
       <c r="D20">
-        <v>766000000</v>
+        <v>766460000</v>
       </c>
       <c r="E20">
-        <v>830000000</v>
+        <v>829501000</v>
       </c>
       <c r="F20">
-        <v>816000000</v>
+        <v>816225000</v>
       </c>
       <c r="G20">
         <v>765779000</v>
@@ -2512,23 +2623,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1096000000</v>
+        <v>1046192000</v>
       </c>
       <c r="C21">
-        <v>1269000000</v>
+        <v>1233088000</v>
       </c>
       <c r="D21">
-        <v>1331000000</v>
+        <v>1292182000</v>
       </c>
       <c r="E21">
-        <v>1348000000</v>
+        <v>1311276000</v>
       </c>
       <c r="F21">
-        <v>1435000000</v>
+        <v>1397870000</v>
       </c>
       <c r="G21">
         <v>1519465000</v>
@@ -2577,17 +2688,17 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2000000</v>
+        <v>2473000</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>53000</v>
       </c>
       <c r="G22">
         <v>68000</v>
@@ -2660,23 +2771,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>203000000</v>
+        <v>203204000</v>
       </c>
       <c r="C23">
-        <v>217000000</v>
+        <v>216947000</v>
       </c>
       <c r="D23">
-        <v>230000000</v>
+        <v>230292000</v>
       </c>
       <c r="E23">
-        <v>228000000</v>
+        <v>228085000</v>
       </c>
       <c r="F23">
-        <v>228000000</v>
+        <v>227537000</v>
       </c>
       <c r="G23">
         <v>220680000</v>
@@ -2779,23 +2890,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>14000000</v>
+        <v>14199000</v>
       </c>
       <c r="C24">
-        <v>9000000</v>
+        <v>8807000</v>
       </c>
       <c r="D24">
-        <v>9000000</v>
+        <v>8735000</v>
       </c>
       <c r="E24">
-        <v>3000000</v>
+        <v>2893000</v>
       </c>
       <c r="F24">
-        <v>3000000</v>
+        <v>3132000</v>
       </c>
       <c r="G24">
         <v>4902000</v>
@@ -2808,8 +2919,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>1315827000</v>
@@ -2927,23 +3038,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>2128000000</v>
+        <v>2128075000</v>
       </c>
       <c r="C26">
-        <v>2329000000</v>
+        <v>2328719000</v>
       </c>
       <c r="D26">
-        <v>2336000000</v>
+        <v>2336072000</v>
       </c>
       <c r="E26">
-        <v>2468000000</v>
+        <v>2408129000</v>
       </c>
       <c r="F26">
-        <v>2482000000</v>
+        <v>2482165000</v>
       </c>
       <c r="G26">
         <v>2533012000</v>
@@ -3049,8 +3160,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1164359000</v>
@@ -3171,23 +3282,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>481000</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>481000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>481000</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>481000</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>481000</v>
       </c>
       <c r="G28">
         <v>481000</v>
@@ -3293,23 +3404,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>1407000000</v>
+        <v>1406777000</v>
       </c>
       <c r="C29">
-        <v>1354000000</v>
+        <v>1353544000</v>
       </c>
       <c r="D29">
-        <v>1314000000</v>
+        <v>1313598000</v>
       </c>
       <c r="E29">
-        <v>1274000000</v>
+        <v>1273614000</v>
       </c>
       <c r="F29">
-        <v>1219000000</v>
+        <v>1218832000</v>
       </c>
       <c r="G29">
         <v>1174662000</v>
@@ -3415,8 +3526,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>23473000</v>
@@ -3537,23 +3648,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>2547000000</v>
+        <v>2547298000</v>
       </c>
       <c r="C31">
-        <v>2458000000</v>
+        <v>2458327000</v>
       </c>
       <c r="D31">
-        <v>2388000000</v>
+        <v>2387734000</v>
       </c>
       <c r="E31">
-        <v>2324000000</v>
+        <v>2324032000</v>
       </c>
       <c r="F31">
-        <v>2201000000</v>
+        <v>2200773000</v>
       </c>
       <c r="G31">
         <v>2107991000</v>
@@ -3659,23 +3770,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>2547000000</v>
+        <v>2547298000</v>
       </c>
       <c r="C32">
-        <v>2458000000</v>
+        <v>2458327000</v>
       </c>
       <c r="D32">
-        <v>2388000000</v>
+        <v>2387734000</v>
       </c>
       <c r="E32">
-        <v>2324000000</v>
+        <v>2324032000</v>
       </c>
       <c r="F32">
-        <v>2201000000</v>
+        <v>2200773000</v>
       </c>
       <c r="G32">
         <v>2107991000</v>
@@ -3781,8 +3892,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>4675373000</v>
@@ -3903,8 +4014,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>41623000</v>
@@ -4025,8 +4136,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>-957243900</v>
@@ -4147,23 +4258,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>912000000</v>
+        <v>850905000</v>
       </c>
       <c r="C36">
-        <v>1021000000</v>
+        <v>975560000</v>
       </c>
       <c r="D36">
-        <v>1084000000</v>
+        <v>1033947000</v>
       </c>
       <c r="E36">
-        <v>1028000000</v>
+        <v>979805000</v>
       </c>
       <c r="F36">
-        <v>1192000000</v>
+        <v>1144387000</v>
       </c>
       <c r="G36">
         <v>1281469000</v>
@@ -4269,23 +4380,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>1137000000</v>
+        <v>1076192000</v>
       </c>
       <c r="C37">
-        <v>1309000000</v>
+        <v>1263088000</v>
       </c>
       <c r="D37">
-        <v>1372000000</v>
+        <v>1322182000</v>
       </c>
       <c r="E37">
-        <v>1389000000</v>
+        <v>1341276000</v>
       </c>
       <c r="F37">
-        <v>1475000000</v>
+        <v>1427870000</v>
       </c>
       <c r="G37">
         <v>1549465000</v>
